--- a/Assets/Resources/Cfg/EventDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EventDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -22,7 +22,7 @@
     <t>EventName</t>
   </si>
   <si>
-    <t>页面ID</t>
+    <t>EventID</t>
   </si>
   <si>
     <t>PageName</t>
@@ -46,13 +46,10 @@
     <t>Result3</t>
   </si>
   <si>
-    <t>//事件ID</t>
+    <t>//该页面的ID</t>
   </si>
   <si>
     <t>//所属的事件名</t>
-  </si>
-  <si>
-    <t>//该页面的ID</t>
   </si>
   <si>
     <t>//页面名称</t>
@@ -123,8 +120,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -156,16 +153,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +192,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +253,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -280,14 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +311,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,61 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,103 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,26 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,6 +516,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +545,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -573,17 +574,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +611,7 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1085,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1147,28 +1144,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1205,60 +1202,60 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
         <v>10010</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
         <v>10010</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10012</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>-1</v>
@@ -1269,28 +1266,28 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
         <v>10010</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10013</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>-1</v>
@@ -1301,28 +1298,28 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
         <v>10010</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10014</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>-1</v>

--- a/Assets/Resources/Cfg/EventDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EventDataCfg.xlsx
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,6 +146,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -154,7 +206,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +221,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,23 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,85 +267,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +502,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,21 +548,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -585,11 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,8 +761,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1084,8 +1088,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/Assets/Resources/Cfg/EventDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EventDataCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3DEB0D-7585-4266-9F23-6C806E3C0F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F7CDA-7BCA-4FBF-94A8-3CD6AE6FC7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>你看到有一群没见过的幽灵向你飞来，但你感觉到他们与众不同，似乎没有恶意。</t>
   </si>
   <si>
-    <t>向他们问好;10012;1002;5</t>
-  </si>
-  <si>
     <t>保持警戒;10013;1001;0</t>
   </si>
   <si>
@@ -124,6 +121,10 @@
   </si>
   <si>
     <t>//所属事件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向他们问好;10012;1002;5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +498,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -550,13 +551,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -635,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -655,19 +656,19 @@
         <v>10010</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1">
         <v>-1</v>
@@ -687,19 +688,19 @@
         <v>10010</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1">
         <v>-1</v>
@@ -719,19 +720,19 @@
         <v>10010</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1">
         <v>-1</v>
